--- a/biology/Zoologie/Dipsas_indica/Dipsas_indica.xlsx
+++ b/biology/Zoologie/Dipsas_indica/Dipsas_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas indica  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas indica  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a le corps comprimé latéralement. Sa coloration est très variable, du brun clair au noir. les juvéniles sont nettement plus contrastés et présentes des motifs différents des adultes. Adulte, Dipsas indica mesure généralement entre 60 et 80 cm[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a le corps comprimé latéralement. Sa coloration est très variable, du brun clair au noir. les juvéniles sont nettement plus contrastés et présentes des motifs différents des adultes. Adulte, Dipsas indica mesure généralement entre 60 et 80 cm. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne  et dans la forêt atlantique. Elle est présente au Brésil, en Bolivie, au Pérou, en Équateur, en Colombie, au Venezuela, au Guyana, en Suriname et en Guyane, jusqu'à 1 000 m d'altitude[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne  et dans la forêt atlantique. Elle est présente au Brésil, en Bolivie, au Pérou, en Équateur, en Colombie, au Venezuela, au Guyana, en Suriname et en Guyane, jusqu'à 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vie dans les forêts tropicales humides. Comme toutes les espèces du genre Dipsas, elle se nourrit exclusivement de gastéropodes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vie dans les forêts tropicales humides. Comme toutes les espèces du genre Dipsas, elle se nourrit exclusivement de gastéropodes.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (19 août 2015)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (19 août 2015) :
 Dipsas indica ecuadoriensis Peters, 1960
 Dipsas indica indica Laurenti, 1768
 Dipsas indica petersi Hoge &amp; de Lemos Romano, 1975</t>
@@ -637,9 +657,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Dipsas indica petersi a été élevée au rang d'espèce par Harvey et Embert en 2009[5] puis a été rétrogradée au statut de sous-espèce.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Dipsas indica petersi a été élevée au rang d'espèce par Harvey et Embert en 2009 puis a été rétrogradée au statut de sous-espèce.
 </t>
         </is>
       </c>
@@ -668,7 +690,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Hoge &amp; de Lemos Romano, 1975 : A new subspecies of Dipsas indica from Brazil (Serpentes, Colubridae, Dipsadinae). Memórias do Instituto Butantan, vol. 39, p. 51-60.
 Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austracorum, quod authoritate et consensu. Vienna, Joan. Thomae, p. 1-217.
